--- a/biology/Botanique/Loupiac_(AOC)/Loupiac_(AOC).xlsx
+++ b/biology/Botanique/Loupiac_(AOC)/Loupiac_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le loupiac[1] est un vin français d'appellation d'origine contrôlée produit sur la commune de Loupiac.
+Le loupiac est un vin français d'appellation d'origine contrôlée produit sur la commune de Loupiac.
 Avec les appellations cadillac et sainte-croix-du-mont, ils forment une petite région produisant des vins liquoreux au sein de l'Entre-deux-Mers, dans le vignoble de l'Entre-deux-Mers.
 </t>
         </is>
@@ -513,11 +525,48 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le vignoble est situé en France autour de la commune de Loupiac dans le département de la Gironde en région Nouvelle-Aquitaine, en face de Sauternes, à 40 km de Bordeaux. Ce sont des vignobles de coteaux.
-Encépagement
-À l'instar des autres liquoreux de la Gironde, le vin est issu des cépages :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble est situé en France autour de la commune de Loupiac dans le département de la Gironde en région Nouvelle-Aquitaine, en face de Sauternes, à 40 km de Bordeaux. Ce sont des vignobles de coteaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Loupiac_(AOC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loupiac_(AOC)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À l'instar des autres liquoreux de la Gironde, le vin est issu des cépages :
 le sémillon pour 80 %, qui apporte le gras et la force ;
 le sauvignon, présent dans une proportion de 15 %, apportant sa touche aromatique ;
 La muscadelle, enfin, qui complète l'assemblage.</t>
